--- a/data/case1/5/V1_14.xlsx
+++ b/data/case1/5/V1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999425433317</v>
+        <v>0.99999998966469006</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99799621752631407</v>
+        <v>0.99635382945445561</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99086839342354638</v>
+        <v>0.98674008581422734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99148165767630458</v>
+        <v>0.98768598773837446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.97886621816626529</v>
+        <v>0.97541881069704139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.95759644240687547</v>
+        <v>0.9453614446782832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95972673018002586</v>
+        <v>0.94116119299592826</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96104111494791078</v>
+        <v>0.93536961297850363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.96863941042801127</v>
+        <v>0.92948405104361786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.96189230137197135</v>
+        <v>0.92451604391228726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.96092209495583969</v>
+        <v>0.923822116705733</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.95933198298922129</v>
+        <v>0.92275744181873309</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.95392123521751238</v>
+        <v>0.91991772339907363</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.9524345899848452</v>
+        <v>0.91959745359927281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95229939494821192</v>
+        <v>0.92054070368029817</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.94979319291955022</v>
+        <v>0.92218483194887291</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.94608554134677547</v>
+        <v>0.91847712834119077</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.94497663778873009</v>
+        <v>0.91736824674795203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99694300564622007</v>
+        <v>0.99426264282895538</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98982596597430605</v>
+        <v>0.98714580360245574</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98842747290177324</v>
+        <v>0.98574735227664356</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98716296617051547</v>
+        <v>0.98448285556292348</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98383402405572173</v>
+        <v>0.97970553253046844</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97081358312175359</v>
+        <v>0.96668489222070453</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.964356657619728</v>
+        <v>0.96022794878849083</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95336957266589795</v>
+        <v>0.94170651210704892</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94772773767368101</v>
+        <v>0.93686059494438312</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.92238023358364929</v>
+        <v>0.91538984900019749</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.90711052265623404</v>
+        <v>0.90011944098379648</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.90054045385717729</v>
+        <v>0.89354931268155036</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.89288689281618927</v>
+        <v>0.88589589831695292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.89120757714094312</v>
+        <v>0.88421664125192989</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.89068757147480337</v>
+        <v>0.88369665261062624</v>
       </c>
     </row>
   </sheetData>
